--- a/biology/Microbiologie/Heterogloeaceae/Heterogloeaceae.xlsx
+++ b/biology/Microbiologie/Heterogloeaceae/Heterogloeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heterogloeaceae sont une famille d'algues de l'embranchement des Ochrophyta, de la classe des Xanthophyceae ou Tribophyceae (algues jaunes)[1]. C'est la seule famille de l'ordre des Heterogloeales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heterogloeaceae sont une famille d'algues de l'embranchement des Ochrophyta, de la classe des Xanthophyceae ou Tribophyceae (algues jaunes). C'est la seule famille de l'ordre des Heterogloeales.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Heterogloea, composé du préfixe hetero- (du grec ετερος / eteros, «  différent, contraire, opposé »), et -gloea, glutineux  (de glea, gelée), en référence au fait que les cellules de cet organisme peuvent soit vivre libre, soit se grouper dans une substance gélatineuse.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Heterogloea est un organisme colonial, dont les groupes sans forme définie, qui peuvent faire jusqu'à 100 μm de diamètre, vivent librement ou attachés à un substrat. 
 Les cellules globulaires, sans paroi cellulaire, de 4 à 10 μm de diamètre, sont dispersées dans un mucilage, non stratifié plus ou moins ferme, et sont susceptibles d'avoir des mouvements amiboïdes.
-La cellule renferme deux ou trois chloroplastes de petite taille ; une seule vacuole contractile y a été observée [1]. 
+La cellule renferme deux ou trois chloroplastes de petite taille ; une seule vacuole contractile y a été observée . 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (27 mars 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (27 mars 2022) :
 Gloeochloris Pascher, 1932
 Helminthogloea Pascher, 1932
 Heterogloea Pascher, 1930
